--- a/data_input/source_data/Status_Overhaul.xlsx
+++ b/data_input/source_data/Status_Overhaul.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Budnik_AN\OneDrive\Обмен АТИ\Final\Выгрузка май 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\budnik_an\cube linux\cube\data_input\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,9 +60,6 @@
     <t>22774</t>
   </si>
   <si>
-    <t>МИ8</t>
-  </si>
-  <si>
     <t>22774/H-24</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>22789</t>
   </si>
   <si>
-    <t>МИ8АМТ</t>
-  </si>
-  <si>
     <t>22789/H-24-3</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>22481/H-24</t>
+  </si>
+  <si>
+    <t>Ми-17</t>
+  </si>
+  <si>
+    <t>Ми-8Т</t>
   </si>
 </sst>
 </file>
@@ -526,11 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,18 +574,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>45307</v>
@@ -598,30 +597,30 @@
         <v>45320</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>45327</v>
@@ -636,27 +635,27 @@
         <v>45442</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>45307</v>
@@ -671,27 +670,27 @@
         <v>45531</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>45344</v>
@@ -706,27 +705,27 @@
         <v>45482</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <v>45364</v>
@@ -741,27 +740,27 @@
         <v>45583</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>45387</v>
@@ -776,27 +775,27 @@
         <v>45554</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>45328</v>
@@ -811,27 +810,27 @@
         <v>45625</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>45399</v>
@@ -846,27 +845,27 @@
         <v>45534</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>45341</v>
@@ -881,27 +880,27 @@
         <v>45565</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>45481</v>
@@ -916,27 +915,27 @@
         <v>45656</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>45715</v>
@@ -948,30 +947,30 @@
         <v>45741</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1">
         <v>45509</v>
@@ -986,27 +985,27 @@
         <v>45716</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <v>45603</v>
@@ -1021,27 +1020,27 @@
         <v>45789</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1">
         <v>45692</v>
@@ -1053,30 +1052,30 @@
         <v>45700</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1">
         <v>45754</v>
@@ -1088,30 +1087,30 @@
         <v>45763</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1">
         <v>45727</v>
@@ -1123,30 +1122,30 @@
         <v>45727</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1">
         <v>45733</v>
@@ -1158,30 +1157,30 @@
         <v>45749</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
         <v>45713</v>
@@ -1193,30 +1192,30 @@
         <v>45720</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
         <v>45628</v>
@@ -1228,27 +1227,20 @@
         <v>45649</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K20">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="В процессе"/>
-        <filter val="Открыто"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K20"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_input/source_data/Status_Overhaul.xlsx
+++ b/data_input/source_data/Status_Overhaul.xlsx
@@ -535,7 +535,10 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="20" customWidth="1"/>
-    <col min="5" max="8" width="10" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data_input/source_data/Status_Overhaul.xlsx
+++ b/data_input/source_data/Status_Overhaul.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\budnik_an\cube linux\cube\data_input\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Budnik_AN\OneDrive\Обмен АТИ\Final\Выгрузка 03.07\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="123">
   <si>
     <t>ac_registr</t>
   </si>
@@ -57,6 +57,75 @@
     <t>operator</t>
   </si>
   <si>
+    <t>25485</t>
+  </si>
+  <si>
+    <t>Ми-17</t>
+  </si>
+  <si>
+    <t>25485/H-23</t>
+  </si>
+  <si>
+    <t>КАПИТАЛЬНЫЙ РЕМОНТ</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Закрыто</t>
+  </si>
+  <si>
+    <t>ЮТ-ВУ</t>
+  </si>
+  <si>
+    <t>25413</t>
+  </si>
+  <si>
+    <t>25413/H-22</t>
+  </si>
+  <si>
+    <t>27131</t>
+  </si>
+  <si>
+    <t>27131/L-090424</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА К ПП 2024</t>
+  </si>
+  <si>
+    <t>25558</t>
+  </si>
+  <si>
+    <t>25558/L-040424</t>
+  </si>
+  <si>
+    <t>22171</t>
+  </si>
+  <si>
+    <t>22171/L-150224</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА К ПП2024</t>
+  </si>
+  <si>
+    <t>ГТЛК</t>
+  </si>
+  <si>
+    <t>22179</t>
+  </si>
+  <si>
+    <t>22179/L-220124</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА К ПП В РФ</t>
+  </si>
+  <si>
+    <t>22509</t>
+  </si>
+  <si>
+    <t>22509/H-22</t>
+  </si>
+  <si>
     <t>24593</t>
   </si>
   <si>
@@ -66,27 +135,36 @@
     <t>24593/H-24</t>
   </si>
   <si>
-    <t>КАПИТАЛЬНЫЙ РЕМОНТ</t>
-  </si>
-  <si>
-    <t>Закрыто</t>
-  </si>
-  <si>
-    <t>ЮТ-ВУ</t>
-  </si>
-  <si>
     <t>22774</t>
   </si>
   <si>
     <t>22774/H-23</t>
   </si>
   <si>
+    <t>24116</t>
+  </si>
+  <si>
+    <t>24116/H-24</t>
+  </si>
+  <si>
+    <t>Открыто</t>
+  </si>
+  <si>
     <t>24246</t>
   </si>
   <si>
     <t>24246/H-24</t>
   </si>
   <si>
+    <t>22504</t>
+  </si>
+  <si>
+    <t>22504-020824</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА ВС К РАБОТЕ В ЗР</t>
+  </si>
+  <si>
     <t>22861</t>
   </si>
   <si>
@@ -96,9 +174,6 @@
     <t>22789</t>
   </si>
   <si>
-    <t>Ми-17</t>
-  </si>
-  <si>
     <t>22789/H-24-3</t>
   </si>
   <si>
@@ -111,6 +186,9 @@
     <t>22633/H-24</t>
   </si>
   <si>
+    <t>22504/L-180924</t>
+  </si>
+  <si>
     <t>22804</t>
   </si>
   <si>
@@ -138,21 +216,48 @@
     <t>22427/H-24</t>
   </si>
   <si>
+    <t>22486</t>
+  </si>
+  <si>
+    <t>22486/L-010225</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА К ПП</t>
+  </si>
+  <si>
     <t>24135</t>
   </si>
   <si>
     <t>24135/H-24</t>
   </si>
   <si>
+    <t>22428</t>
+  </si>
+  <si>
+    <t>22428/H-26</t>
+  </si>
+  <si>
+    <t>22497</t>
+  </si>
+  <si>
+    <t>22497/L-010225</t>
+  </si>
+  <si>
+    <t>25751</t>
+  </si>
+  <si>
+    <t>25751-020824</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА ВС К РАБОТЕ ЗР, ПОКРАСКА</t>
+  </si>
+  <si>
     <t>22215</t>
   </si>
   <si>
     <t>22215/H-25</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>В процессе</t>
   </si>
   <si>
@@ -162,16 +267,34 @@
     <t>22802/H-24</t>
   </si>
   <si>
-    <t>22486</t>
+    <t>22497-240325</t>
+  </si>
+  <si>
+    <t>ОТЗПЧ: АРМ-043</t>
   </si>
   <si>
     <t>22486/H-25</t>
   </si>
   <si>
-    <t>22774/H-24</t>
-  </si>
-  <si>
-    <t>КАПИТАЛЬНЫЙ РЕМОНТ (ДОП.РАБОТЫ)</t>
+    <t>22268</t>
+  </si>
+  <si>
+    <t>22268/L-250124-2</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА К ПП В РФ+ПОКРАСКА</t>
+  </si>
+  <si>
+    <t>22216</t>
+  </si>
+  <si>
+    <t>22216/L-300125</t>
+  </si>
+  <si>
+    <t>22517</t>
+  </si>
+  <si>
+    <t>22517/L-290125</t>
   </si>
   <si>
     <t>24546</t>
@@ -180,22 +303,91 @@
     <t>24546/H-24-2</t>
   </si>
   <si>
+    <t>27130</t>
+  </si>
+  <si>
+    <t>27130/L-120325</t>
+  </si>
+  <si>
     <t>22494</t>
   </si>
   <si>
     <t>22494/H-25</t>
   </si>
   <si>
+    <t>22269</t>
+  </si>
+  <si>
+    <t>22269/L-250124-2</t>
+  </si>
+  <si>
     <t>22481</t>
   </si>
   <si>
     <t>22481/H-24</t>
   </si>
   <si>
+    <t>22504/L-080424</t>
+  </si>
+  <si>
+    <t>ПОКРАСКА ВС</t>
+  </si>
+  <si>
+    <t>22504/L-080424-2</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА К ПП 2024, ПОКРАСКА ВС</t>
+  </si>
+  <si>
+    <t>22952</t>
+  </si>
+  <si>
+    <t>22952/L-040325</t>
+  </si>
+  <si>
+    <t>ПОДГОТОВКА ВС К ПП2025</t>
+  </si>
+  <si>
+    <t>22504-280325</t>
+  </si>
+  <si>
+    <t>ОТЗПЧ: ЛНВ, РВ, АРМ-043-01</t>
+  </si>
+  <si>
+    <t>27069</t>
+  </si>
+  <si>
+    <t>27069/L-120325</t>
+  </si>
+  <si>
+    <t>22556</t>
+  </si>
+  <si>
+    <t>22556/L-240625</t>
+  </si>
+  <si>
+    <t>ЗАМЕНА ДВИГАТЕЛЕЙ ТВ2-117(2ШТ.), РВ</t>
+  </si>
+  <si>
     <t>22489</t>
   </si>
   <si>
     <t>22489/H-25</t>
+  </si>
+  <si>
+    <t>22431</t>
+  </si>
+  <si>
+    <t>22431-211224</t>
+  </si>
+  <si>
+    <t>ЗАМЕНА ШПАНГОУТОВ №7,10 ЦЧФ</t>
+  </si>
+  <si>
+    <t>25484</t>
+  </si>
+  <si>
+    <t>25484/L-120325</t>
   </si>
   <si>
     <t>Счет</t>
@@ -527,15 +719,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="8" width="10" customWidth="1"/>
     <col min="9" max="11" width="20" customWidth="1"/>
   </cols>
@@ -575,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -592,25 +787,25 @@
         <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>45327</v>
+        <v>45646</v>
       </c>
       <c r="F2" s="1">
-        <v>45442</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45327</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45442</v>
+        <v>45769</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -618,37 +813,37 @@
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1">
-        <v>45307</v>
+        <v>45709</v>
       </c>
       <c r="F3" s="1">
-        <v>45531</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45307</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45531</v>
+        <v>45830</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -656,37 +851,37 @@
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
-        <v>45344</v>
+        <v>45386</v>
       </c>
       <c r="F4" s="1">
-        <v>45482</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45344</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45482</v>
+        <v>45409</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -694,37 +889,37 @@
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1">
-        <v>45364</v>
+        <v>45386</v>
       </c>
       <c r="F5" s="1">
-        <v>45583</v>
-      </c>
-      <c r="G5" s="1">
-        <v>45384</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45583</v>
+        <v>45402</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -732,37 +927,37 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
-        <v>45387</v>
+        <v>45337</v>
       </c>
       <c r="F6" s="1">
-        <v>45554</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45415</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45554</v>
+        <v>45414</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -770,37 +965,37 @@
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45313</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45409</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45328</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45625</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45328</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45625</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -808,37 +1003,37 @@
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>45399</v>
+        <v>46552</v>
       </c>
       <c r="F8" s="1">
-        <v>45546</v>
-      </c>
-      <c r="G8" s="1">
-        <v>45399</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45534</v>
+        <v>46672</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -846,37 +1041,37 @@
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1">
-        <v>45341</v>
+        <v>45327</v>
       </c>
       <c r="F9" s="1">
-        <v>45566</v>
+        <v>45442</v>
       </c>
       <c r="G9" s="1">
-        <v>45341</v>
+        <v>45327</v>
       </c>
       <c r="H9" s="1">
-        <v>45565</v>
+        <v>45442</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -884,75 +1079,75 @@
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1">
-        <v>45481</v>
+        <v>45307</v>
       </c>
       <c r="F10" s="1">
-        <v>45656</v>
+        <v>45531</v>
       </c>
       <c r="G10" s="1">
-        <v>45490</v>
+        <v>45307</v>
       </c>
       <c r="H10" s="1">
-        <v>45656</v>
+        <v>45531</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1">
-        <v>45692</v>
+        <v>45940</v>
       </c>
       <c r="F11" s="1">
-        <v>45835</v>
-      </c>
-      <c r="G11" s="1">
-        <v>45700</v>
-      </c>
-      <c r="H11" s="1">
-        <v>45833</v>
+        <v>46062</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -960,151 +1155,151 @@
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>45509</v>
+        <v>45344</v>
       </c>
       <c r="F12" s="1">
-        <v>45730</v>
+        <v>45482</v>
       </c>
       <c r="G12" s="1">
-        <v>45566</v>
+        <v>45344</v>
       </c>
       <c r="H12" s="1">
-        <v>45716</v>
+        <v>45482</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>45754</v>
+        <v>45506</v>
       </c>
       <c r="F13" s="1">
-        <v>45905</v>
-      </c>
-      <c r="G13" s="1">
-        <v>45763</v>
+        <v>45538</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>45727</v>
+        <v>45364</v>
       </c>
       <c r="F14" s="1">
-        <v>45915</v>
+        <v>45583</v>
       </c>
       <c r="G14" s="1">
-        <v>45727</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
+        <v>45384</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45583</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1">
-        <v>45733</v>
+        <v>45387</v>
       </c>
       <c r="F15" s="1">
-        <v>45891</v>
+        <v>45554</v>
       </c>
       <c r="G15" s="1">
-        <v>45749</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
+        <v>45415</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45554</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1112,37 +1307,37 @@
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
-        <v>45307</v>
+        <v>45328</v>
       </c>
       <c r="F16" s="1">
-        <v>45307</v>
+        <v>45625</v>
       </c>
       <c r="G16" s="1">
-        <v>45320</v>
+        <v>45328</v>
       </c>
       <c r="H16" s="1">
-        <v>45320</v>
+        <v>45625</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1150,37 +1345,37 @@
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1">
-        <v>45603</v>
+        <v>45553</v>
       </c>
       <c r="F17" s="1">
-        <v>45789</v>
-      </c>
-      <c r="G17" s="1">
-        <v>45604</v>
-      </c>
-      <c r="H17" s="1">
-        <v>45789</v>
+        <v>45582</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1188,37 +1383,37 @@
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1">
-        <v>45713</v>
+        <v>45399</v>
       </c>
       <c r="F18" s="1">
-        <v>45838</v>
+        <v>45546</v>
       </c>
       <c r="G18" s="1">
-        <v>45720</v>
+        <v>45399</v>
       </c>
       <c r="H18" s="1">
-        <v>45838</v>
+        <v>45534</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1226,85 +1421,1112 @@
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1">
-        <v>45628</v>
+        <v>45341</v>
       </c>
       <c r="F19" s="1">
-        <v>45806</v>
+        <v>45566</v>
       </c>
       <c r="G19" s="1">
-        <v>45649</v>
+        <v>45341</v>
       </c>
       <c r="H19" s="1">
-        <v>45806</v>
+        <v>45565</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1">
+        <v>45481</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45656</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45490</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45656</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45692</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45835</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45700</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45833</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45689</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45694</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45509</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45730</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45566</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45716</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1">
+        <v>46371</v>
+      </c>
+      <c r="F24" s="1">
+        <v>46492</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45689</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45739</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45506</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45719</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45506</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45754</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45905</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45763</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45727</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45915</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45727</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45740</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45748</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45733</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45891</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45749</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45316</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45362</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45687</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45779</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45686</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45768</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45603</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45789</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45604</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45789</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45728</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45869</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45713</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45838</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45720</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45838</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45316</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45371</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45628</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45806</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45649</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45806</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45414</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45787</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45390</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45451</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45390</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45451</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45720</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45832</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45744</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45842</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45728</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45856</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45834</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45870</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1">
         <v>45715</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F45" s="1">
         <v>45868</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G45" s="1">
         <v>45741</v>
       </c>
-      <c r="H20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20">
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45865</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45728</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45853</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L20">
+  <autoFilter ref="A1:L47">
     <filterColumn colId="8">
       <filters>
         <filter val="В процессе"/>
+        <filter val="Открыто"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data_input/source_data/Status_Overhaul.xlsx
+++ b/data_input/source_data/Status_Overhaul.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Budnik_AN\OneDrive\Обмен АТИ\Final\Выгрузка 03.07\Original\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\budnik_an\cube linux\cube\data_input\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$47</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -722,7 +722,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
